--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H2">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I2">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J2">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>172.120849327152</v>
+        <v>14.43459003845178</v>
       </c>
       <c r="R2">
-        <v>1549.087643944368</v>
+        <v>129.911310346066</v>
       </c>
       <c r="S2">
-        <v>0.004307191657458678</v>
+        <v>0.0004597200189761008</v>
       </c>
       <c r="T2">
-        <v>0.004307191657458678</v>
+        <v>0.0004597200189761008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H3">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>162.637850111946</v>
+        <v>25.14032352764133</v>
       </c>
       <c r="R3">
-        <v>1463.740651007514</v>
+        <v>226.262911748772</v>
       </c>
       <c r="S3">
-        <v>0.004069886907528076</v>
+        <v>0.0008006815557909823</v>
       </c>
       <c r="T3">
-        <v>0.004069886907528077</v>
+        <v>0.0008006815557909824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H4">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I4">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J4">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>190.750925187482</v>
+        <v>31.05776877293244</v>
       </c>
       <c r="R4">
-        <v>1716.758326687338</v>
+        <v>279.519918956392</v>
       </c>
       <c r="S4">
-        <v>0.004773394953788666</v>
+        <v>0.0009891433017227044</v>
       </c>
       <c r="T4">
-        <v>0.004773394953788667</v>
+        <v>0.0009891433017227044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>311.028648</v>
       </c>
       <c r="I5">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J5">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>11664.96273188467</v>
+        <v>6328.562763201635</v>
       </c>
       <c r="R5">
-        <v>104984.664586962</v>
+        <v>56957.06486881472</v>
       </c>
       <c r="S5">
-        <v>0.29190670601353</v>
+        <v>0.2015552215781912</v>
       </c>
       <c r="T5">
-        <v>0.29190670601353</v>
+        <v>0.2015552215781912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>311.028648</v>
       </c>
       <c r="I6">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J6">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>11022.28154094066</v>
@@ -818,10 +818,10 @@
         <v>99200.53386846589</v>
       </c>
       <c r="S6">
-        <v>0.2758241043132664</v>
+        <v>0.3510431169616131</v>
       </c>
       <c r="T6">
-        <v>0.2758241043132664</v>
+        <v>0.3510431169616131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>311.028648</v>
       </c>
       <c r="I7">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J7">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>12927.55899173622</v>
+        <v>13616.66929513908</v>
       </c>
       <c r="R7">
-        <v>116348.030925626</v>
+        <v>122550.0236562517</v>
       </c>
       <c r="S7">
-        <v>0.32350220474846</v>
+        <v>0.43367047142158</v>
       </c>
       <c r="T7">
-        <v>0.32350220474846</v>
+        <v>0.4336704714215801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H8">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I8">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J8">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>1251.48308381424</v>
+        <v>73.67394294479347</v>
       </c>
       <c r="R8">
-        <v>11263.34775432816</v>
+        <v>663.0654865031412</v>
       </c>
       <c r="S8">
-        <v>0.0313174000658677</v>
+        <v>0.002346404460286103</v>
       </c>
       <c r="T8">
-        <v>0.0313174000658677</v>
+        <v>0.002346404460286104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H9">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I9">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J9">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>1182.53261588402</v>
+        <v>128.3158549189913</v>
       </c>
       <c r="R9">
-        <v>10642.79354295618</v>
+        <v>1154.842694270922</v>
       </c>
       <c r="S9">
-        <v>0.02959196772337189</v>
+        <v>0.004086667311032295</v>
       </c>
       <c r="T9">
-        <v>0.02959196772337189</v>
+        <v>0.004086667311032296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H10">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I10">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J10">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>1386.941541523007</v>
+        <v>158.5184115706991</v>
       </c>
       <c r="R10">
-        <v>12482.47387370706</v>
+        <v>1426.665704136292</v>
       </c>
       <c r="S10">
-        <v>0.03470714361672863</v>
+        <v>0.005048573390807533</v>
       </c>
       <c r="T10">
-        <v>0.03470714361672863</v>
+        <v>0.005048573390807534</v>
       </c>
     </row>
   </sheetData>
